--- a/Monitoring Data Files/Correspondence/Tango Monitoring.xlsx
+++ b/Monitoring Data Files/Correspondence/Tango Monitoring.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Monitoring Dashboard\Monitoring Data Files\Correspondence\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuradah\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C84227-674E-4FD1-9BC7-81C18A78E6A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B256A2-239B-46CE-B103-64EFFA1F41D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -360,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,12 +397,111 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1">
+        <v>45939</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1">
+        <v>45940</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>45941</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45942</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>45943</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45944</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45945</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45946</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45947</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>45948</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>45949</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>45950</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>45951</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Monitoring Data Files/Correspondence/Tango Monitoring.xlsx
+++ b/Monitoring Data Files/Correspondence/Tango Monitoring.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuradah\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B256A2-239B-46CE-B103-64EFFA1F41D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABAE7AA-6ABC-4FCF-A6B2-66844EBBDC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -363,7 +363,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,7 +497,7 @@
         <v>45951</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
